--- a/Teams/scripture memorise.xlsx
+++ b/Teams/scripture memorise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryannleslie/Documents/Study/cse210/Teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704558DF-D3D0-8643-A05B-5B0CEE3718F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF675898-E8D8-C446-A31F-8607E994B182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="500" windowWidth="26920" windowHeight="16940" xr2:uid="{DA2A1C0E-80A9-384D-AC35-0DE456B9A203}"/>
+    <workbookView xWindow="1860" yWindow="500" windowWidth="26920" windowHeight="16940" xr2:uid="{DA2A1C0E-80A9-384D-AC35-0DE456B9A203}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>HideWords(): void</t>
   </si>
   <si>
-    <t>GetRenderedText() : string</t>
-  </si>
-  <si>
     <t>IsCompletelyHidden(): void</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>9. Ends on quit or all words hidden</t>
+  </si>
+  <si>
+    <t>GetRenderedText() : void</t>
   </si>
 </sst>
 </file>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23632299-6C99-E447-B094-BA362B6E2400}">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -594,37 +594,37 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
@@ -635,7 +635,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3"/>
       <c r="E8" s="3" t="s">
@@ -666,73 +666,73 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Teams/scripture memorise.xlsx
+++ b/Teams/scripture memorise.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryannleslie/Documents/Study/cse210/Teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF675898-E8D8-C446-A31F-8607E994B182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E7C306-E586-E149-AB90-989556F8E4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="500" windowWidth="26920" windowHeight="16940" xr2:uid="{DA2A1C0E-80A9-384D-AC35-0DE456B9A203}"/>
+    <workbookView xWindow="1880" yWindow="900" windowWidth="26920" windowHeight="16940" xr2:uid="{DA2A1C0E-80A9-384D-AC35-0DE456B9A203}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Scripture</t>
   </si>
@@ -64,9 +64,6 @@
     <t>IsCompletelyHidden(): void</t>
   </si>
   <si>
-    <t>_reference: string</t>
-  </si>
-  <si>
     <t>_words: List&lt;Word&gt;</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>Word(_text)</t>
   </si>
   <si>
-    <t>_text: string</t>
-  </si>
-  <si>
     <t>_text:string</t>
   </si>
   <si>
@@ -140,16 +134,31 @@
   </si>
   <si>
     <t>GetRenderedText() : void</t>
+  </si>
+  <si>
+    <t>_reference:string</t>
+  </si>
+  <si>
+    <t>_text</t>
+  </si>
+  <si>
+    <t>_wordsHidden:array</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -210,20 +219,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,12 +251,12 @@
   <dxfs count="6">
     <dxf>
       <font>
-        <color theme="9"/>
+        <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="9"/>
       </font>
     </dxf>
     <dxf>
@@ -256,7 +276,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF7030A0"/>
       </font>
     </dxf>
   </dxfs>
@@ -572,181 +592,177 @@
   <dimension ref="A2:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
-    <col min="3" max="3" width="41.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:F244">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Reference">
-      <formula>NOT(ISERROR(SEARCH("Reference",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Scripture">
-      <formula>NOT(ISERROR(SEARCH("Scripture",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Word">
-      <formula>NOT(ISERROR(SEARCH("Word",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>